--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>356</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
@@ -406,27 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omitir</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="B6">
-        <v>3620</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B7">
-        <v>336</v>
+      <c r="B9">
+        <v>3730</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>264</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>297</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>655</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>Omitir</t>
         </is>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>3730</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3">
@@ -386,47 +386,97 @@
         </is>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omitir</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B6">
-        <v>3630</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Omitir</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B7">
-        <v>336</v>
+      <c r="B12">
+        <v>8620</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1419</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,97 +386,47 @@
         </is>
       </c>
       <c r="B3">
-        <v>823</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="B5">
-        <v>1128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Omitir</t>
         </is>
       </c>
       <c r="B6">
-        <v>1289</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Omitir</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>8620</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3">
@@ -386,47 +386,97 @@
         </is>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omitir</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B6">
-        <v>3630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Omitir</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B7">
-        <v>336</v>
+      <c r="B12">
+        <v>8595</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1420</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,97 +386,47 @@
         </is>
       </c>
       <c r="B3">
-        <v>824</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1129</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Omitir</t>
         </is>
       </c>
       <c r="B6">
-        <v>711</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Omitir</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>8595</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,20 +412,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omitir</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3659</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B7">
         <v>353</v>
       </c>
     </row>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
@@ -412,10 +412,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Omitir</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>353</v>
       </c>
     </row>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
@@ -406,27 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omitir</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="B6">
-        <v>3661</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B7">
-        <v>353</v>
+      <c r="B9">
+        <v>3684</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>975</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>266</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>297</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>646</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>3684</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>353</v>
+      <c r="B11">
+        <v>8647</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1399</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>824</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1140</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8647</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>353</v>
+      <c r="B11">
+        <v>8646</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1399</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>825</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8646</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>353</v>
+      <c r="B11">
+        <v>8645</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1398</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>825</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8645</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>353</v>
+      <c r="B11">
+        <v>8650</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1357</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8650</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1357</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8650</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>354</v>
+      <c r="B11">
+        <v>8661</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1357</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8661</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>354</v>
+      <c r="B11">
+        <v>8662</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1354</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8662</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1354</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8662</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>337</v>
+      <c r="B11">
+        <v>8646</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1354</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1134</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8646</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>337</v>
+      <c r="B11">
+        <v>8645</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1354</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>828</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1134</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8645</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>366</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>337</v>
+      <c r="B11">
+        <v>8652</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1359</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>834</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1135</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8652</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1359</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>834</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1135</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8652</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>341</v>
+      <c r="B11">
+        <v>8657</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1402</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>835</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8657</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>341</v>
+      <c r="B11">
+        <v>8657</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1402</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>835</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8657</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B11">
+        <v>8657</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1402</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>835</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1138</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8657</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,87 @@
         </is>
       </c>
       <c r="B3">
-        <v>369</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B5">
-        <v>277</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B11">
+        <v>8647</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1514</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,87 +386,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>833</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>1137</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NFL</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>8647</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>369</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B9">
+        <v>8340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>507</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>667</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8340</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>376</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B9">
+        <v>8348</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>510</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>667</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8348</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>376</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B9">
+        <v>8351</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>514</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>667</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8351</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>376</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>340</v>
+      <c r="B9">
+        <v>8364</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>514</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8364</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>514</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8364</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>377</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8367</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>8367</v>
+        <v>8365</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1537</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>515</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8365</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8365</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1537</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>515</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8365</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>380</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8464</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1538</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>517</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>659</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8464</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>380</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8464</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1538</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>517</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>659</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8464</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>380</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8464</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1538</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>518</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>659</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8464</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>380</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8469</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1538</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>518</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>660</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8469</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>382</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B9">
+        <v>8477</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1500</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>518</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>660</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>8477</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>276</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
-        <v>342</v>
+      <c r="B7">
+        <v>6706</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>462</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -406,27 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>580</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>6707</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,16 +406,26 @@
         </is>
       </c>
       <c r="B5">
-        <v>370</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>344</v>
       </c>
     </row>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,61 +372,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great Britain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B5">
-        <v>1062</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B6">
-        <v>207</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Great Britain</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B7">
-        <v>344</v>
+      <c r="B22">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,221 +372,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Great Britain</t>
         </is>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="B5">
-        <v>141</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="B6">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B7">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Great Britain</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>945</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
@@ -406,27 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1062</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,16 +406,26 @@
         </is>
       </c>
       <c r="B5">
-        <v>278</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>341</v>
       </c>
     </row>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>383</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>567</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,27 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>1030</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>379</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>284</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">

--- a/tabulacao_conteudo_final.xlsx
+++ b/tabulacao_conteudo_final.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
